--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1684,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1731,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1886,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1933,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2088,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2135,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2810,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2857,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3012,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3059,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3214,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3261,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3445,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3468,28 +3492,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3647,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3694,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3849,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3872,28 +3896,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3942,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4051,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4098,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4253,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4300,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4484,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4507,28 +4531,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4662,10 +4686,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4709,28 +4733,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4755,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4888,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4911,28 +4935,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4981,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5182,10 +5206,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5229,28 +5253,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5275,28 +5299,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5500,10 +5524,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5547,28 +5571,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5593,28 +5617,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5731,10 +5755,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5778,28 +5802,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5824,28 +5848,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5962,10 +5986,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6009,28 +6033,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6055,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6164,10 +6188,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6211,28 +6235,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6257,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6366,10 +6390,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6413,28 +6437,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6459,28 +6483,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6708,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6755,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6801,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7002,10 +7026,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7049,28 +7073,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7095,28 +7119,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7204,10 +7228,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7251,28 +7275,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7297,28 +7321,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7522,10 +7546,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7569,28 +7593,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7615,28 +7639,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7753,10 +7777,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7800,28 +7824,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7846,28 +7870,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7979,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
